--- a/biology/Médecine/CIM-10_Chapitre_16___Certaines_affections_dont_l'origine_se_situe_dans_la_période_périnatale/CIM-10_Chapitre_16___Certaines_affections_dont_l'origine_se_situe_dans_la_période_périnatale.xlsx
+++ b/biology/Médecine/CIM-10_Chapitre_16___Certaines_affections_dont_l'origine_se_situe_dans_la_période_périnatale/CIM-10_Chapitre_16___Certaines_affections_dont_l'origine_se_situe_dans_la_période_périnatale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_16_:_Certaines_affections_dont_l%27origine_se_situe_dans_la_p%C3%A9riode_p%C3%A9rinatale</t>
+          <t>CIM-10_Chapitre_16_:_Certaines_affections_dont_l'origine_se_situe_dans_la_période_périnatale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet article développe le chapitre XVI de la classification internationale des maladies, CIM-10[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet article développe le chapitre XVI de la classification internationale des maladies, CIM-10.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_16_:_Certaines_affections_dont_l%27origine_se_situe_dans_la_p%C3%A9riode_p%C3%A9rinatale</t>
+          <t>CIM-10_Chapitre_16_:_Certaines_affections_dont_l'origine_se_situe_dans_la_période_périnatale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>P00-P04 - Fœtus et nouveau-né affectés par des troubles maternels et par des complications de la grossesse, du travail et de l'accouchement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(P00) Fœtus et nouveau-né affectés par des affections maternelles, éventuellement sans rapport avec la grossesse actuelle
 (P00.0) Fœtus et nouveau-né affectés par des troubles hypertensifs de la mère
@@ -575,7 +589,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_16_:_Certaines_affections_dont_l%27origine_se_situe_dans_la_p%C3%A9riode_p%C3%A9rinatale</t>
+          <t>CIM-10_Chapitre_16_:_Certaines_affections_dont_l'origine_se_situe_dans_la_période_périnatale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -593,7 +607,9 @@
           <t>P05-P08 - Anomalies liées à la durée de la gestation et à la croissance du fœtus</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(P05) Retard de croissance et malnutrition du fœtus
 (P05.0) Faible poids pour l'âge gestationnel
@@ -618,7 +634,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_16_:_Certaines_affections_dont_l%27origine_se_situe_dans_la_p%C3%A9riode_p%C3%A9rinatale</t>
+          <t>CIM-10_Chapitre_16_:_Certaines_affections_dont_l'origine_se_situe_dans_la_période_périnatale</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -636,7 +652,9 @@
           <t>P10-P15 - Traumatismes obstétricaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(P10) Déchirure et hémorragie intracrâniennes dues à un traumatisme obstétrical
 (P10.0) Hémorragie sous-durale due à un traumatisme obstétrical
@@ -696,7 +714,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_16_:_Certaines_affections_dont_l%27origine_se_situe_dans_la_p%C3%A9riode_p%C3%A9rinatale</t>
+          <t>CIM-10_Chapitre_16_:_Certaines_affections_dont_l'origine_se_situe_dans_la_période_périnatale</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -714,7 +732,9 @@
           <t>P20-P29 - Affections respiratoires et cardio-vasculaires spécifiques de la période périnatale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(P20) Hypoxie intra-utérine
 (P20.0) Hypoxie intra-utérine constatée pour la première fois avant le début du travail
@@ -787,7 +807,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_16_:_Certaines_affections_dont_l%27origine_se_situe_dans_la_p%C3%A9riode_p%C3%A9rinatale</t>
+          <t>CIM-10_Chapitre_16_:_Certaines_affections_dont_l'origine_se_situe_dans_la_période_périnatale</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -805,7 +825,9 @@
           <t>P35-P39 - Infections spécifiques de la période périnatale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(P35) Maladies virales congénitales
 (P35.0) Syndrome de rubéole congénitale
@@ -850,7 +872,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_16_:_Certaines_affections_dont_l%27origine_se_situe_dans_la_p%C3%A9riode_p%C3%A9rinatale</t>
+          <t>CIM-10_Chapitre_16_:_Certaines_affections_dont_l'origine_se_situe_dans_la_période_périnatale</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -868,7 +890,9 @@
           <t>P50-P61 - Affections hémorragiques et hématologiques du fœtus et du nouveau-né</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(P50) Perte de sang fœtal
 (P50.0) Perte de sang fœtal due à une insertion vélamenteuse du cordon
@@ -952,7 +976,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_16_:_Certaines_affections_dont_l%27origine_se_situe_dans_la_p%C3%A9riode_p%C3%A9rinatale</t>
+          <t>CIM-10_Chapitre_16_:_Certaines_affections_dont_l'origine_se_situe_dans_la_période_périnatale</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -970,7 +994,9 @@
           <t>P70-P74 - Anomalies endocriniennes et métaboliques transitoires spécifiques du fœtus et du nouveau-né</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>(P70) Anomalies transitoires du métabolisme des glucides spécifiques du fœtus et du nouveau-né
 (P70.0) Syndrome de l'enfant dont la mère a un diabète de la grossesse
@@ -1012,7 +1038,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_16_:_Certaines_affections_dont_l%27origine_se_situe_dans_la_p%C3%A9riode_p%C3%A9rinatale</t>
+          <t>CIM-10_Chapitre_16_:_Certaines_affections_dont_l'origine_se_situe_dans_la_période_périnatale</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1030,7 +1056,9 @@
           <t>P75-P78 - Affections de l'appareil digestif du fœtus et du nouveau-né</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>(P75) Iléus méconial
 (P76) Autres occlusions intestinales du nouveau-né
@@ -1056,7 +1084,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_16_:_Certaines_affections_dont_l%27origine_se_situe_dans_la_p%C3%A9riode_p%C3%A9rinatale</t>
+          <t>CIM-10_Chapitre_16_:_Certaines_affections_dont_l'origine_se_situe_dans_la_période_périnatale</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1074,7 +1102,9 @@
           <t>P80-P83 - Affections intéressant les téguments et la régulation thermique du fœtus et du nouveau-né</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>(P80) Hypothermie du nouveau-né
 (P80.0) Syndrome hypothermique du nouveau-né
@@ -1103,7 +1133,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_16_:_Certaines_affections_dont_l%27origine_se_situe_dans_la_p%C3%A9riode_p%C3%A9rinatale</t>
+          <t>CIM-10_Chapitre_16_:_Certaines_affections_dont_l'origine_se_situe_dans_la_période_périnatale</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1121,7 +1151,9 @@
           <t>P90-P96 - Autres affections dont l'origine se situe dans la période périnatale</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>(P90) Convulsions du nouveau-né
 (P91) Autres affections cérébrales du nouveau-né
